--- a/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 3.xlsx
+++ b/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 3.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>281412264.3324378</v>
+        <v>278591291.7602876</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>69815289.73788144</v>
+        <v>68206815.77939248</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35616244.68497792</v>
+        <v>35437402.41438095</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34127826.60800646</v>
+        <v>33951031.44325949</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12997045.32859225</v>
+        <v>12930435.68819594</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8330549.899593748</v>
+        <v>8298208.981708465</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21315082.50959732</v>
+        <v>21185131.71895465</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54494219.45371509</v>
+        <v>54108610.27666823</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1652429.733747059</v>
+        <v>1646031.209860755</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>444059829.3086603</v>
+        <v>434106340.68779</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25840767.92095949</v>
+        <v>25715862.2081616</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>141498180.7590178</v>
+        <v>140779950.4022332</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25528598.7107228</v>
+        <v>25402040.3939698</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19053058.85245553</v>
+        <v>18985823.7863256</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>63842607.21241939</v>
+        <v>63463150.9037428</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17467866.9389112</v>
+        <v>17352184.18579713</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>389623712.1299226</v>
+        <v>385705156.782053</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>94365308.17487776</v>
+        <v>92186780.0733566</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>146926117.7910134</v>
+        <v>146182361.0466259</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>104070519.1936248</v>
+        <v>103529084.0015872</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>59367761.76670463</v>
+        <v>59061357.42088156</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35206616.23894562</v>
+        <v>35067039.64596702</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52579273.12185761</v>
+        <v>52256995.16106378</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>200346361.0063697</v>
+        <v>198908265.6049126</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4793470.909789975</v>
+        <v>4774275.338131063</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>704723940.5626878</v>
+        <v>688995116.1345047</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>51701751.26809705</v>
+        <v>51451939.84250128</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>313539052.3350221</v>
+        <v>311947895.8522993</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53762795.99852568</v>
+        <v>53496357.4369404</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35004113.73190483</v>
+        <v>34880707.59786888</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>88353384.37752093</v>
+        <v>87828383.18332455</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>55180643.41685428</v>
+        <v>54815448.84329812</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6395406.454568526</v>
+        <v>6374078.04161418</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>402432624.1034837</v>
+        <v>398379996.2854359</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>121449124.1161427</v>
+        <v>118635976.947033</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>65773248.72328823</v>
+        <v>65443951.8440938</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100407804.1386207</v>
+        <v>99888468.34217648</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20197300.23597389</v>
+        <v>20094055.2933596</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>782804578.64087</v>
+        <v>765141212.3256713</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>51708750.78771212</v>
+        <v>51456100.59591639</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>429615361.9636848</v>
+        <v>427421996.9510427</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>75868396.39394294</v>
+        <v>75488721.44368394</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>472426919.0548959</v>
+        <v>467595543.3481979</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>146183210.027096</v>
+        <v>142755186.4499432</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36595686.96208614</v>
+        <v>36411167.15908927</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>106416793.2925809</v>
+        <v>105864308.4027466</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22015871.00707748</v>
+        <v>21902634.61840374</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>17134969.55388366</v>
+        <v>17067734.48775373</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>60463240.86619402</v>
+        <v>60032265.90361222</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2978268.243232968</v>
+        <v>2966537.616108078</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>783164447.934773</v>
+        <v>765527553.3121035</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52922475.07790273</v>
+        <v>52664147.3537071</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>442833717.0103009</v>
+        <v>440574053.8108786</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>73268878.03449218</v>
+        <v>72902525.01231243</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>52035210.3135028</v>
+        <v>51847122.34369628</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>125980602.7870194</v>
+        <v>125226888.2012919</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>72408275.13694079</v>
+        <v>71920592.94244035</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>8466200.643291408</v>
+        <v>8436874.075479181</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>266375976.5091246</v>
+        <v>350872243.8102098</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>66227938.04608434</v>
+        <v>100582884.6024421</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43940858.02422052</v>
+        <v>43365466.75168382</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5359089.290496878</v>
+        <v>5308295.807359682</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16379388.57571967</v>
+        <v>16180280.33199686</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>494461228.1118085</v>
+        <v>681498751.0021273</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5284682.497027053</v>
+        <v>4726889.0372754</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44364126.80360117</v>
+        <v>43641042.39370997</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>251316182.6483928</v>
+        <v>248480924.7707632</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>46646535.05464721</v>
+        <v>45947369.00597668</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>56524212.8195107</v>
+        <v>56231395.82789852</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>12347193.06216264</v>
+        <v>12283913.90378614</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2349160.720087226</v>
+        <v>2337805.655287418</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32653426.32900409</v>
+        <v>32487680.8620538</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>195397709.5063977</v>
+        <v>194381137.3091026</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37427501.98335727</v>
+        <v>37234334.02620795</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>9400318.41238128</v>
+        <v>9354898.15318205</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45724445.13219072</v>
+        <v>45492401.47846031</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3969075.353991531</v>
+        <v>3949203.990591868</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>129248343.6252458</v>
+        <v>128579836.9085463</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27364084.1906743</v>
+        <v>27224203.94584204</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>18997274.86929406</v>
+        <v>18924082.26565894</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>15376983.26432317</v>
+        <v>15283418.69506045</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64123328.16323289</v>
+        <v>63671938.59716038</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6271921.145084223</v>
+        <v>6247926.680510583</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5228974.798757406</v>
+        <v>5203425.902957838</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>64929273.84841584</v>
+        <v>64597782.91451526</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>8714957.997929009</v>
+        <v>8672376.504929731</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>55197970.29948121</v>
+        <v>54997967.25466433</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>138922125.2838328</v>
+        <v>138090440.2237197</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>80691411.5329774</v>
+        <v>80147022.10655829</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8281572.864425122</v>
+        <v>8252779.506936754</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25335475.58913656</v>
+        <v>25207731.11013872</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>46823389.0487356</v>
+        <v>46580295.69720851</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22663396.6249327</v>
+        <v>22546829.75423915</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5815656.601967335</v>
+        <v>5787268.939967816</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>77956057.76220457</v>
+        <v>77558268.64152388</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2144737.380923096</v>
+        <v>1917678.84219738</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>48229871.28461794</v>
+        <v>47208355.00775325</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1287231.789702859</v>
+        <v>1240728.267226266</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6736448.218707125</v>
+        <v>6571900.483240593</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>826544.7113595045</v>
+        <v>743135.4522357725</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>7634641.314534741</v>
+        <v>7448153.881006006</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>96463607.22894381</v>
+        <v>95549324.53247429</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>275514.9037865015</v>
+        <v>247711.8174119241</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18344915.20480603</v>
+        <v>18121913.97183649</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13378688.93761707</v>
+        <v>11970600.56970741</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>56171670.30290497</v>
+        <v>54702225.23909931</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>400682.0851483209</v>
+        <v>359867.9295567367</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2945130.638612407</v>
+        <v>2639024.471675524</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34602735.38992624</v>
+        <v>33523600.90663388</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>92272716.25705382</v>
+        <v>91012675.21350189</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2773909.6445879</v>
+        <v>2701344.456251817</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3549130.144288094</v>
+        <v>3491283.391496798</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>3441625.977406373</v>
+        <v>3287579.016034796</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>9666665.512643734</v>
+        <v>9534661.212843053</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>72116817.62953882</v>
+        <v>71303221.89074075</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4140651.835002776</v>
+        <v>4073163.956746265</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1869849.730692164</v>
+        <v>1679383.671264771</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2294417.318270916</v>
+        <v>2191719.344023198</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>168416523.64</v>
+        <v>185558742.04</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>75341935.48387097</v>
+        <v>123646451.6129032</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>249690.8126</v>
+        <v>629073.1725999999</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>447418892.7</v>
+        <v>473265464.96</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>396397.0800000001</v>
+        <v>8902882.08</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>90126070.68000001</v>
+        <v>126070.68</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
